--- a/ProLeiTAG/Massafra/Update/Values/dbIdcImport/S16.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/dbIdcImport/S16.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/dbIdcImport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.20.205.11\Massafra\MassafraSQL\ProLeiTAG\Massafra\Update\Values\dbIdcImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47C7BDD-C256-B140-A013-737E5FA9E2E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-21600" windowWidth="51200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="LiTSeqSupplOptions" sheetId="4" r:id="rId1"/>
     <sheet name="LiTSeqSupplValues" sheetId="5" r:id="rId2"/>
     <sheet name="LiTSeqSupplFunctions" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,12 +118,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="R2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="S2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,12 +243,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -290,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -331,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="T2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -352,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="V2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -374,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+    <comment ref="W2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -395,7 +394,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
   <si>
     <t>\\BERGAMO-SV101</t>
   </si>
@@ -667,7 +666,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1032,33 +1031,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="3"/>
+    <col min="10" max="10" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1087,7 +1086,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -1128,12 +1127,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>12</v>
+      <c r="B3" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>36</v>
@@ -1176,38 +1175,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F4"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="3"/>
-    <col min="18" max="18" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1640625" style="3"/>
+    <col min="16" max="16" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1242,7 +1241,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -1301,12 +1300,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>12</v>
+      <c r="B3" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>36</v>
@@ -1357,12 +1356,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>12</v>
+      <c r="B4" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>36</v>
@@ -1420,42 +1419,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1640625" style="3"/>
-    <col min="20" max="20" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.1640625" style="3"/>
+    <col min="16" max="16" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="3"/>
+    <col min="20" max="20" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -1494,7 +1493,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -1565,7 +1564,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
